--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="28200" windowHeight="13200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="API List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Lấy danh sách hình logo thương hiệu</t>
   </si>
@@ -31,12 +31,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Lấy danh sách các ưu đãi chưa đăng nhập theo vị trí</t>
-  </si>
-  <si>
-    <t>http://{domain}/api/campaign/get_all</t>
-  </si>
-  <si>
     <t>Params</t>
   </si>
   <si>
@@ -52,6 +46,18 @@
     <t>Require</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Lấy danh sách các ưu đãi theo vị trí</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/campaign</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
@@ -74,6 +80,72 @@
   </si>
   <si>
     <t>country_id</t>
+  </si>
+  <si>
+    <t>Đăng Ký</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/member/register</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/member/update</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/member/login</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>expried</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Đăng Ký Device</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/device/register</t>
+  </si>
+  <si>
+    <t>device_token</t>
+  </si>
+  <si>
+    <t>device_info</t>
   </si>
 </sst>
 </file>
@@ -83,8 +155,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -99,20 +171,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -122,8 +180,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,23 +248,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +259,21 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,15 +293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,58 +331,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,49 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,138 +527,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -480,6 +552,28 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +632,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -557,44 +666,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,162 +689,180 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A3:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="10.5" outlineLevelCol="4"/>
@@ -1092,221 +1195,655 @@
     <col min="1" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="11.25" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="4" ht="11.25" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="11.25" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="11.25" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="11.25" spans="2:2">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" ht="11.25" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="11.25" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="11.25" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" ht="11.25" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="11.25" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="11.25" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="11.25" spans="2:2">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="11.25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" ht="11.25" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="11.25" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" ht="11.25" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11"/>
+      <c r="B35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11"/>
+      <c r="B36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11"/>
+      <c r="B37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11"/>
+      <c r="B38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" ht="11.25" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" ht="11.25" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11"/>
+      <c r="B44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11"/>
+      <c r="B46" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" ht="11.25" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" ht="11.25" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6"/>
+      <c r="B54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6"/>
+      <c r="B55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="11.25" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="C56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" ht="11.25" spans="1:5">
+      <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="11.25" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="B60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" ht="11.25" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="11.25" spans="2:2">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="11.25" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="11.25" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="11"/>
+      <c r="B63" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="11"/>
+      <c r="B64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="11"/>
+      <c r="B65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
+  <mergeCells count="24">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A62:A66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://{domain}/api/trademark"/>
-    <hyperlink ref="B7" r:id="rId2" display="http://{domain}/api/campaign/get_all" tooltip="http://{domain}/api/campaign/get_all"/>
-    <hyperlink ref="B15" r:id="rId3" display="http://{domain}/api/countries" tooltip="http://{domain}/api/countries"/>
-    <hyperlink ref="B20" r:id="rId4" display="http://{domain}/api/province" tooltip="http://{domain}/api/province"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://{domain}/api/trademark" tooltip="http://{domain}/api/trademark"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://{domain}/api/campaign" tooltip="http://{domain}/api/campaign"/>
+    <hyperlink ref="B20" r:id="rId3" display="http://{domain}/api/countries" tooltip="http://{domain}/api/countries"/>
+    <hyperlink ref="B25" r:id="rId4" display="http://{domain}/api/province" tooltip="http://{domain}/api/province"/>
+    <hyperlink ref="B32" r:id="rId5" display="http://{domain}/api/member/register" tooltip="http://{domain}/api/member/register"/>
+    <hyperlink ref="B41" r:id="rId6" display="http://{domain}/api/member/update" tooltip="http://{domain}/api/member/update"/>
+    <hyperlink ref="B60" r:id="rId7" display="http://{domain}/api/device/register" tooltip="http://{domain}/api/device/register"/>
+    <hyperlink ref="B50" r:id="rId8" display="http://{domain}/api/member/login" tooltip="http://{domain}/api/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13200"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,15 @@
     <t>Require</t>
   </si>
   <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>token</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Lấy danh sách các ưu đãi theo vị trí</t>
   </si>
   <si>
@@ -124,10 +127,7 @@
     <t>http://{domain}/api/member/login</t>
   </si>
   <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>Return</t>
+    <t>Output</t>
   </si>
   <si>
     <t>expried</t>
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -201,8 +201,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,40 +287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,37 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,14 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,17 +332,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -347,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,16 +573,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,32 +623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +649,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -657,29 +666,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,134 +689,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,19 +850,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:E66"/>
+  <dimension ref="A3:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="10.5" outlineLevelCol="4"/>
@@ -1252,8 +1243,12 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -1266,7 +1261,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="11.25" spans="1:5">
@@ -1274,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1311,10 +1306,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1322,10 +1317,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
@@ -1343,171 +1338,169 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="11.25" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="11.25" spans="1:5">
       <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="11.25" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" ht="11.25" spans="2:2">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" ht="11.25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" ht="11.25" spans="2:2">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
     </row>
     <row r="26" ht="11.25" spans="1:5">
       <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="11.25" spans="1:5">
+      <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" ht="11.25" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
     </row>
     <row r="33" ht="11.25" spans="1:5">
       <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" ht="11.25" spans="1:5">
+      <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1515,285 +1508,287 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="E38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" ht="11.25" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
     </row>
     <row r="42" ht="11.25" spans="1:5">
       <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" ht="11.25" spans="1:5">
+      <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="11" t="s">
+      <c r="B43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="11"/>
-      <c r="B44" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13" t="s">
-        <v>32</v>
+      <c r="A46" s="6"/>
+      <c r="B46" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" ht="11.25" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="6"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
     </row>
     <row r="51" ht="11.25" spans="1:5">
       <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" ht="11.25" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6"/>
-      <c r="B54" s="13" t="s">
-        <v>25</v>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6"/>
-      <c r="B55" s="13" t="s">
-        <v>27</v>
+      <c r="B55" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="15" t="s">
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6"/>
+      <c r="B58" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" ht="11.25" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
     </row>
     <row r="61" ht="11.25" spans="1:5">
       <c r="A61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" ht="11.25" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="11" t="s">
+      <c r="B62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="11"/>
-      <c r="B63" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="11"/>
-      <c r="B64" s="13" t="s">
-        <v>42</v>
+      <c r="A64" s="6"/>
+      <c r="B64" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="11"/>
-      <c r="B65" s="13" t="s">
-        <v>43</v>
+      <c r="A65" s="6"/>
+      <c r="B65" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>11</v>
@@ -1802,11 +1797,22 @@
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="11"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1814,36 +1820,36 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B52:E52"/>
     <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="http://{domain}/api/trademark" tooltip="http://{domain}/api/trademark"/>
     <hyperlink ref="B12" r:id="rId2" display="http://{domain}/api/campaign" tooltip="http://{domain}/api/campaign"/>
-    <hyperlink ref="B20" r:id="rId3" display="http://{domain}/api/countries" tooltip="http://{domain}/api/countries"/>
-    <hyperlink ref="B25" r:id="rId4" display="http://{domain}/api/province" tooltip="http://{domain}/api/province"/>
-    <hyperlink ref="B32" r:id="rId5" display="http://{domain}/api/member/register" tooltip="http://{domain}/api/member/register"/>
-    <hyperlink ref="B41" r:id="rId6" display="http://{domain}/api/member/update" tooltip="http://{domain}/api/member/update"/>
-    <hyperlink ref="B60" r:id="rId7" display="http://{domain}/api/device/register" tooltip="http://{domain}/api/device/register"/>
-    <hyperlink ref="B50" r:id="rId8" display="http://{domain}/api/member/login" tooltip="http://{domain}/api/member/login"/>
+    <hyperlink ref="B21" r:id="rId3" display="http://{domain}/api/countries" tooltip="http://{domain}/api/countries"/>
+    <hyperlink ref="B26" r:id="rId4" display="http://{domain}/api/province" tooltip="http://{domain}/api/province"/>
+    <hyperlink ref="B33" r:id="rId5" display="http://{domain}/api/member/register" tooltip="http://{domain}/api/member/register"/>
+    <hyperlink ref="B42" r:id="rId6" display="http://{domain}/api/member/update" tooltip="http://{domain}/api/member/update"/>
+    <hyperlink ref="B61" r:id="rId7" display="http://{domain}/api/device/register" tooltip="http://{domain}/api/device/register"/>
+    <hyperlink ref="B51" r:id="rId8" display="http://{domain}/api/member/login" tooltip="http://{domain}/api/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
